--- a/public/templete/multiple_courses.xlsx
+++ b/public/templete/multiple_courses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Subject Code</t>
   </si>
@@ -65,7 +65,10 @@
     <t>2020_C</t>
   </si>
   <si>
-    <t>Yee Jian Xiong (lr1111)</t>
+    <t>*** (lr****)</t>
+  </si>
+  <si>
+    <t>Credit</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -129,6 +132,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,12 +429,13 @@
     <col min="3" max="3" width="26.88671875" customWidth="1"/>
     <col min="4" max="4" width="36.77734375" customWidth="1"/>
     <col min="5" max="5" width="45.21875" customWidth="1"/>
-    <col min="6" max="6" width="42.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
     <col min="7" max="7" width="22.88671875" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -448,13 +455,16 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -473,11 +483,17 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -486,7 +502,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -495,7 +511,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -504,7 +520,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -512,14 +528,14 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -527,7 +543,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -535,14 +551,14 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -550,7 +566,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -558,7 +574,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="2"/>

--- a/public/templete/multiple_courses.xlsx
+++ b/public/templete/multiple_courses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Subject Code</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Credit</t>
+  </si>
+  <si>
+    <t>Reviewer (Staff ID)</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,9 +436,10 @@
     <col min="7" max="7" width="22.88671875" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -463,8 +467,11 @@
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -492,8 +499,11 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -502,7 +512,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -511,7 +521,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -520,7 +530,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -528,14 +538,14 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -543,7 +553,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -551,14 +561,14 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -566,7 +576,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -574,7 +584,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="2"/>

--- a/public/templete/multiple_courses.xlsx
+++ b/public/templete/multiple_courses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Subject Code</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Credit</t>
-  </si>
-  <si>
-    <t>Reviewer (Staff ID)</t>
   </si>
 </sst>
 </file>
@@ -421,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,9 +464,7 @@
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
@@ -499,9 +494,7 @@
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
